--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Enfermedad renal terminal.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Enfermedad renal terminal.xlsx
@@ -507,7 +507,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19.87474021638648</v>
+        <v>19.87474021638649</v>
       </c>
       <c r="B7" t="n">
         <v>16.95800868427562</v>
@@ -521,7 +521,7 @@
         <v>7.534856710700137</v>
       </c>
       <c r="B8" t="n">
-        <v>5.036298212680629</v>
+        <v>5.036298212680627</v>
       </c>
       <c r="C8" t="n">
         <v>10.5937926112375</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.630592836605739</v>
+        <v>8.630592836605741</v>
       </c>
       <c r="B10" t="n">
-        <v>6.045424594340524</v>
+        <v>6.045424594340522</v>
       </c>
       <c r="C10" t="n">
         <v>11.94663998691074</v>
@@ -576,7 +576,7 @@
         <v>14.59613112729863</v>
       </c>
       <c r="B13" t="n">
-        <v>11.41965665259471</v>
+        <v>11.4196566525947</v>
       </c>
       <c r="C13" t="n">
         <v>18.71458814775775</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34.28997740841108</v>
+        <v>34.28997740841107</v>
       </c>
       <c r="B15" t="n">
         <v>30.56434044863228</v>
@@ -656,7 +656,7 @@
         <v>25.83120495341767</v>
       </c>
       <c r="C20" t="n">
-        <v>33.94886844141962</v>
+        <v>33.94886844141963</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>27.78853278749735</v>
       </c>
       <c r="C21" t="n">
-        <v>35.42963383486162</v>
+        <v>35.42963383486163</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +675,7 @@
         <v>9.693152229519066</v>
       </c>
       <c r="B22" t="n">
-        <v>6.959227698698099</v>
+        <v>6.959227698698097</v>
       </c>
       <c r="C22" t="n">
         <v>13.28037863407814</v>
@@ -785,7 +785,7 @@
         <v>11.47480641454321</v>
       </c>
       <c r="B32" t="n">
-        <v>8.868893894126614</v>
+        <v>8.868893894126613</v>
       </c>
       <c r="C32" t="n">
         <v>14.75158966326722</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>32.47514649039465</v>
+        <v>32.47514649039466</v>
       </c>
       <c r="B37" t="n">
         <v>28.55935097590144</v>
       </c>
       <c r="C37" t="n">
-        <v>36.73470938927026</v>
+        <v>36.73470938927027</v>
       </c>
     </row>
     <row r="38">
@@ -917,7 +917,7 @@
         <v>16.03432071152025</v>
       </c>
       <c r="B44" t="n">
-        <v>13.41138283473658</v>
+        <v>13.41138283473659</v>
       </c>
       <c r="C44" t="n">
         <v>18.98953291180111</v>
@@ -950,7 +950,7 @@
         <v>10.68935815644784</v>
       </c>
       <c r="B47" t="n">
-        <v>7.682384248451038</v>
+        <v>7.682384248451037</v>
       </c>
       <c r="C47" t="n">
         <v>14.57589982423387</v>
@@ -1038,7 +1038,7 @@
         <v>31.44576383047361</v>
       </c>
       <c r="B55" t="n">
-        <v>27.74087114884618</v>
+        <v>27.74087114884619</v>
       </c>
       <c r="C55" t="n">
         <v>35.42007947060871</v>
@@ -1148,7 +1148,7 @@
         <v>10.39565865513374</v>
       </c>
       <c r="B65" t="n">
-        <v>7.90742915111788</v>
+        <v>7.907429151117878</v>
       </c>
       <c r="C65" t="n">
         <v>13.4082966518469</v>
@@ -1192,7 +1192,7 @@
         <v>10.73912325593625</v>
       </c>
       <c r="B69" t="n">
-        <v>7.825369164404517</v>
+        <v>7.825369164404515</v>
       </c>
       <c r="C69" t="n">
         <v>14.60456291699262</v>
